--- a/pred_ohlcv/54_21/2019-10-26 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9440.505200000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>11925.0427</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12809.5718</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>16492.7638</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>16981.6976471</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>16918.5220471</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>17187.9621471</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>16880.6607471</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>16880.6607471</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>17320.6607471</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>18381.1217471</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>17529.1217471</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>17529.1217471</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18970.69153916</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>18970.69153916</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>19127.0002471</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>19612.8257471</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19572.8257471</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>23492.4806471</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>23492.4806471</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>23414.2037471</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>23415.2037471</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23455.2037471</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23495.2037471</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>23454.2037471</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>23454.2037471</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>23356.2037471</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>23276.2037471</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>22225.8380471</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>21965.8380471</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>21965.8380471</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>25807.5383471</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>25807.5383471</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>22326.44134710001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>20994.8199471</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>22378.41464710001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>33605.3830471</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>33606.3830471</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>26875.4877471</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>27400.9677471</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>26432.1509471</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>25977.2445471</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>25653.9463471</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>27793.32148828</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>23313.60408828</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>19873.81598828</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>10527.75538828</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11169.43318828</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>11319.52021439</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>19393.11121439</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>17738.12345136</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>15923.91145136</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>9127.285651359996</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>9127.285651359996</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>9149.285651359996</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>6180.507451359996</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>5541.994151359996</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5544.275651359996</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5564.605751359996</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>5518.990951359996</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4080.395051359996</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4169.519351359996</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8918.602300000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8605.400900000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9440.505200000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>9441.505200000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -938,7 +938,7 @@
         <v>11925.0427</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12809.5718</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>16492.7638</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>16981.6976471</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>16918.5220471</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>17187.9621471</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>16880.6607471</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>16880.6607471</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>17320.6607471</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>18381.1217471</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>17529.1217471</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>17529.1217471</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>18860.1017471</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18970.69153916</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>18970.69153916</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>19127.0002471</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>19677.3695471</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19572.8257471</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>23492.4806471</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>23492.4806471</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>23414.2037471</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>23415.2037471</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23455.2037471</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23495.2037471</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>23454.2037471</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>23454.2037471</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>23356.2037471</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>23276.2037471</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>22225.8380471</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>21965.8380471</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>21965.8380471</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>25807.5383471</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>25807.5383471</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>23116.10644710001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>22326.44134710001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>22276.7208471</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>20994.8199471</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>22378.41464710001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>26133.01994710001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>33605.3830471</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>26875.4877471</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>27400.9677471</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>26432.1509471</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>25977.2445471</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>25653.9463471</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>25691.67428828</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>27793.32148828</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>23313.60408828</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>23233.60408828</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>19873.81598828</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>10405.40888828</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>10527.75538828</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11169.43318828</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>11319.52021439</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>19393.11121439</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>9127.285651359996</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>9149.285651359996</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>6180.507451359996</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>5541.994151359996</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>5544.275651359996</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>5404.605751359996</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>5564.605751359996</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>5518.990951359996</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4080.395051359996</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4169.519351359996</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
